--- a/trunk/documentation/draft/ci-environment/deploy-strategy-checklist.xlsx
+++ b/trunk/documentation/draft/ci-environment/deploy-strategy-checklist.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="120" windowWidth="17235" windowHeight="6030"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Source" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -48,10 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Check List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IDE 내장 Web Server, JSP/Servlet Container 사용 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,14 +102,18 @@
   </si>
   <si>
     <t>Deploy Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check Point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,7 +310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -345,7 +344,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -521,154 +519,154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="5"/>
       <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="5"/>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
